--- a/biology/Zoologie/Eigenmannia/Eigenmannia.xlsx
+++ b/biology/Zoologie/Eigenmannia/Eigenmannia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eigenmannia est un genre de poissons gymnotiformes de la famille des Sternopygidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des poissons électriques.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (4 juin 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (4 juin 2010) :
 Eigenmannia humboldtii (Steindachner, 1878)
 Eigenmannia limbata (Schreiner &amp; Miranda Ribeiro, 1903)
 Eigenmannia macrops (Boulenger, 1897)
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jordan &amp; Evermann, 1896 : The fishes of North and Middle America: a descriptive catalogue of the species of fish-like vertebrates found in the waters of North America, north of the Isthmus of Panama. Part I. Bulletin of the United States National Museum, n. 47, p. 1-1240.</t>
         </is>
